--- a/Test Case/accreditamento-checklist_V8.2.1.xlsx
+++ b/Test Case/accreditamento-checklist_V8.2.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Lorenzo\MyWork\FSE\Project\Fse\Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sara.montoli\Downloads\caricare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2A909A-EAE5-455B-BBA1-C84800E37DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520D9157-E327-466F-93DC-ABE981426C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -24,10 +24,21 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Summary!$A$1:$G$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$W$225</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="oXWj5iU3LtnvLpdhFqszSz/X91q3fG5U5zC5TJKtiGw="/>
@@ -69,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="505">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -152,6 +163,15 @@
   </si>
   <si>
     <t>IDENTIFICATIVI SOFTWARE</t>
+  </si>
+  <si>
+    <t>subject_application_id:</t>
+  </si>
+  <si>
+    <t>subject_application_vendor:</t>
+  </si>
+  <si>
+    <t>subject_application_version:</t>
   </si>
   <si>
     <t>ID</t>
@@ -1336,9 +1356,6 @@
 "ERRORE BLOCCANTE (SI/NO)", "ERRORE VISIBILE A UTENTE (SI/NO)", "MESSAGGIO DI ERRORE", "GESTITO IN BACKOFFICE (SI/NO)", "PRESENTE CODA DI RETRY AUTOMATICA PER L'INVIO DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)",  "INVIO MANUALE DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)", "GESTIONE ERRORE".</t>
   </si>
   <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT4_KO</t>
-  </si>
-  <si>
     <t>417, 418, 419</t>
   </si>
   <si>
@@ -1941,63 +1958,6 @@
     <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST OK - HLA" riportata nei documenti "Caso di test - Trasfusionale" e "CDA2_Trasfusionale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
 </t>
-  </si>
-  <si>
-    <t>subject_application_id:IGEA</t>
-  </si>
-  <si>
-    <t>subject_application_vendor:STI srl</t>
-  </si>
-  <si>
-    <t>subject_application_version:V.1.0</t>
-  </si>
-  <si>
-    <t>Mostra un messaggio di errore all'utente riportando in dettaglio la risposta che viene fornita dal gateway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L'operazione di retry viene eseguita manualmente dall'utente medico </t>
-  </si>
-  <si>
-    <t>2024-09-13T22:51:32</t>
-  </si>
-  <si>
-    <t>f492e98109a9c699</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.56481dd394^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-09-13T22:51:33</t>
-  </si>
-  <si>
-    <t>153e26b40740e14c</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.dbec14dc00^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>b14f0f8dcdbc19fb</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.27e22a81b8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-09-13T22:51:34</t>
-  </si>
-  <si>
-    <t>bf7aa8b9a420a4ac</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.929bd2228e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>f9acc3a64a0aafa3</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.d63ace4979^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>Test non applicabile in quanto riguardano parametri statici configurati di sistema</t>
   </si>
 </sst>
 </file>
@@ -2007,18 +1967,11 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2130,18 +2083,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2733,238 +2674,227 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{565105C8-FFD6-432C-8B2E-BD1D172FCD26}"/>
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
-    <cellStyle name="Normale 2" xfId="2" xr:uid="{9D821500-0102-4BAC-98FD-BFF090E4C498}"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -3257,8 +3187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3274,7 +3204,7 @@
     </row>
     <row r="2" spans="1:1" ht="87" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="29" x14ac:dyDescent="0.35">
@@ -3284,22 +3214,22 @@
     </row>
     <row r="4" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="87" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
@@ -3337,7 +3267,7 @@
   <dimension ref="A1:B996"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3397,7 +3327,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -4403,30 +4333,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:AA809"/>
+  <dimension ref="A1:W809"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="78" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="B221" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="M35" sqref="M35:M43"/>
+      <selection pane="bottomRight" activeCell="AB212" sqref="AB212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.453125" customWidth="1"/>
-    <col min="2" max="2" width="20.54296875" customWidth="1"/>
+    <col min="2" max="2" width="46.81640625" customWidth="1"/>
     <col min="3" max="3" width="20.1796875" customWidth="1"/>
-    <col min="4" max="4" width="50.6328125" customWidth="1"/>
-    <col min="5" max="5" width="40.81640625" customWidth="1"/>
-    <col min="6" max="6" width="12.81640625" customWidth="1"/>
-    <col min="7" max="7" width="21.08984375" customWidth="1"/>
-    <col min="8" max="8" width="20.6328125" customWidth="1"/>
-    <col min="9" max="9" width="33.1796875" customWidth="1"/>
+    <col min="4" max="4" width="63.81640625" customWidth="1"/>
+    <col min="5" max="5" width="104.81640625" customWidth="1"/>
+    <col min="6" max="9" width="33.1796875" customWidth="1"/>
     <col min="10" max="10" width="27.1796875" customWidth="1"/>
-    <col min="11" max="11" width="70.6328125" customWidth="1"/>
-    <col min="12" max="18" width="36.453125" customWidth="1"/>
+    <col min="11" max="18" width="36.453125" customWidth="1"/>
     <col min="19" max="19" width="27.1796875" customWidth="1"/>
     <col min="20" max="20" width="33.1796875" customWidth="1"/>
     <col min="21" max="21" width="36.453125" customWidth="1"/>
@@ -4456,12 +4381,12 @@
       <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="74"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="71"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -4482,14 +4407,14 @@
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="82" t="s">
-        <v>503</v>
-      </c>
-      <c r="D3" s="74"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="79" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="71"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -4510,12 +4435,12 @@
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="82" t="s">
-        <v>504</v>
-      </c>
-      <c r="D4" s="74"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="79" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="71"/>
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -4537,12 +4462,12 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="80"/>
-      <c r="B5" s="81"/>
-      <c r="C5" s="82" t="s">
-        <v>505</v>
-      </c>
-      <c r="D5" s="74"/>
+      <c r="A5" s="77"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="71"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -4563,8 +4488,8 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="71"/>
-      <c r="B6" s="72"/>
+      <c r="A6" s="68"/>
+      <c r="B6" s="69"/>
       <c r="C6" s="10"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -4630,90 +4555,90 @@
     </row>
     <row r="9" spans="1:23" s="18" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="19" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K9" s="20" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L9" s="20" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="M9" s="20" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N9" s="20" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O9" s="20" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P9" s="20" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="Q9" s="20" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="R9" s="20" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="S9" s="20" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T9" s="20" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="U9" s="21" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="V9" s="20" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="W9" s="22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="29">
         <v>1</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F10" s="32"/>
       <c r="G10" s="33"/>
@@ -4733,24 +4658,24 @@
       <c r="U10" s="35"/>
       <c r="V10" s="36"/>
       <c r="W10" s="37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="29">
         <v>2</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F11" s="32"/>
       <c r="G11" s="33"/>
@@ -4770,24 +4695,24 @@
       <c r="U11" s="35"/>
       <c r="V11" s="36"/>
       <c r="W11" s="37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="29">
         <v>3</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F12" s="32"/>
       <c r="G12" s="33"/>
@@ -4807,24 +4732,24 @@
       <c r="U12" s="35"/>
       <c r="V12" s="36"/>
       <c r="W12" s="37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="29">
         <v>4</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
@@ -4844,24 +4769,24 @@
       <c r="U13" s="35"/>
       <c r="V13" s="36"/>
       <c r="W13" s="37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="29">
         <v>5</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F14" s="32"/>
       <c r="G14" s="33"/>
@@ -4881,24 +4806,24 @@
       <c r="U14" s="35"/>
       <c r="V14" s="36"/>
       <c r="W14" s="37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="29">
         <v>6</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F15" s="32"/>
       <c r="G15" s="33"/>
@@ -4918,24 +4843,24 @@
       <c r="U15" s="35"/>
       <c r="V15" s="36"/>
       <c r="W15" s="37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="29">
         <v>7</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F16" s="32"/>
       <c r="G16" s="33"/>
@@ -4955,24 +4880,24 @@
       <c r="U16" s="35"/>
       <c r="V16" s="36"/>
       <c r="W16" s="37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="29">
         <v>8</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F17" s="32"/>
       <c r="G17" s="33"/>
@@ -4992,24 +4917,24 @@
       <c r="U17" s="35"/>
       <c r="V17" s="36"/>
       <c r="W17" s="37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="29">
         <v>9</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F18" s="32"/>
       <c r="G18" s="33"/>
@@ -5029,24 +4954,24 @@
       <c r="U18" s="35"/>
       <c r="V18" s="36"/>
       <c r="W18" s="37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="29">
         <v>16</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="F19" s="32"/>
       <c r="G19" s="33"/>
@@ -5066,24 +4991,24 @@
       <c r="U19" s="35"/>
       <c r="V19" s="36"/>
       <c r="W19" s="37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="29">
         <v>17</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="F20" s="32"/>
       <c r="G20" s="33"/>
@@ -5103,24 +5028,24 @@
       <c r="U20" s="35"/>
       <c r="V20" s="36"/>
       <c r="W20" s="37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="29">
         <v>18</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F21" s="32"/>
       <c r="G21" s="33"/>
@@ -5140,24 +5065,24 @@
       <c r="U21" s="35"/>
       <c r="V21" s="36"/>
       <c r="W21" s="37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="29">
         <v>19</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F22" s="32"/>
       <c r="G22" s="33"/>
@@ -5177,24 +5102,24 @@
       <c r="U22" s="35"/>
       <c r="V22" s="36"/>
       <c r="W22" s="37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="29">
         <v>20</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E23" s="31" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="F23" s="32"/>
       <c r="G23" s="33"/>
@@ -5214,24 +5139,24 @@
       <c r="U23" s="35"/>
       <c r="V23" s="36"/>
       <c r="W23" s="37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="29">
         <v>21</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="F24" s="32"/>
       <c r="G24" s="33"/>
@@ -5251,24 +5176,24 @@
       <c r="U24" s="35"/>
       <c r="V24" s="36"/>
       <c r="W24" s="37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="29">
         <v>22</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E25" s="31" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="F25" s="32"/>
       <c r="G25" s="33"/>
@@ -5288,24 +5213,24 @@
       <c r="U25" s="35"/>
       <c r="V25" s="36"/>
       <c r="W25" s="37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="29">
         <v>23</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E26" s="31" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F26" s="32"/>
       <c r="G26" s="33"/>
@@ -5325,24 +5250,24 @@
       <c r="U26" s="35"/>
       <c r="V26" s="36"/>
       <c r="W26" s="37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="29">
         <v>24</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E27" s="31" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F27" s="32"/>
       <c r="G27" s="33"/>
@@ -5362,24 +5287,24 @@
       <c r="U27" s="35"/>
       <c r="V27" s="36"/>
       <c r="W27" s="37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="29">
         <v>25</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E28" s="31" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="F28" s="32"/>
       <c r="G28" s="33"/>
@@ -5399,24 +5324,24 @@
       <c r="U28" s="35"/>
       <c r="V28" s="36"/>
       <c r="W28" s="37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="29">
         <v>26</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E29" s="31" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="F29" s="32"/>
       <c r="G29" s="33"/>
@@ -5436,24 +5361,24 @@
       <c r="U29" s="35"/>
       <c r="V29" s="36"/>
       <c r="W29" s="37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="29">
         <v>27</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E30" s="31" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F30" s="32"/>
       <c r="G30" s="33"/>
@@ -5473,24 +5398,24 @@
       <c r="U30" s="35"/>
       <c r="V30" s="36"/>
       <c r="W30" s="37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="29">
         <v>28</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F31" s="32"/>
       <c r="G31" s="33"/>
@@ -5510,24 +5435,24 @@
       <c r="U31" s="35"/>
       <c r="V31" s="36"/>
       <c r="W31" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="29">
         <v>29</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F32" s="32"/>
       <c r="G32" s="33"/>
@@ -5547,24 +5472,24 @@
       <c r="U32" s="35"/>
       <c r="V32" s="36"/>
       <c r="W32" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="29">
         <v>30</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C33" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33" s="31" t="s">
         <v>69</v>
-      </c>
-      <c r="D33" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="E33" s="31" t="s">
-        <v>66</v>
       </c>
       <c r="F33" s="32"/>
       <c r="G33" s="33"/>
@@ -5584,24 +5509,24 @@
       <c r="U33" s="35"/>
       <c r="V33" s="36"/>
       <c r="W33" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="29">
         <v>31</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E34" s="31" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F34" s="32"/>
       <c r="G34" s="33"/>
@@ -5621,7 +5546,7 @@
       <c r="U34" s="35"/>
       <c r="V34" s="36"/>
       <c r="W34" s="37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -5629,27 +5554,23 @@
         <v>32</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E35" s="31" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F35" s="32"/>
       <c r="G35" s="33"/>
       <c r="H35" s="33"/>
       <c r="I35" s="33"/>
-      <c r="J35" s="34" t="s">
-        <v>307</v>
-      </c>
-      <c r="K35" s="68" t="s">
-        <v>521</v>
-      </c>
+      <c r="J35" s="34"/>
+      <c r="K35" s="34"/>
       <c r="L35" s="34"/>
       <c r="M35" s="34"/>
       <c r="N35" s="34"/>
@@ -5662,24 +5583,24 @@
       <c r="U35" s="35"/>
       <c r="V35" s="36"/>
       <c r="W35" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="29">
         <v>33</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E36" s="31" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F36" s="32"/>
       <c r="G36" s="33"/>
@@ -5699,24 +5620,24 @@
       <c r="U36" s="35"/>
       <c r="V36" s="36"/>
       <c r="W36" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="29">
         <v>34</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E37" s="31" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F37" s="32"/>
       <c r="G37" s="33"/>
@@ -5736,24 +5657,24 @@
       <c r="U37" s="35"/>
       <c r="V37" s="36"/>
       <c r="W37" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="29">
         <v>35</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E38" s="31" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="33"/>
@@ -5773,24 +5694,24 @@
       <c r="U38" s="35"/>
       <c r="V38" s="36"/>
       <c r="W38" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="29">
         <v>36</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E39" s="31" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F39" s="32"/>
       <c r="G39" s="33"/>
@@ -5810,24 +5731,24 @@
       <c r="U39" s="35"/>
       <c r="V39" s="36"/>
       <c r="W39" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="29">
         <v>37</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F40" s="32"/>
       <c r="G40" s="33"/>
@@ -5847,24 +5768,24 @@
       <c r="U40" s="35"/>
       <c r="V40" s="36"/>
       <c r="W40" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="29">
         <v>38</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D41" s="30" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E41" s="31" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F41" s="32"/>
       <c r="G41" s="33"/>
@@ -5884,24 +5805,24 @@
       <c r="U41" s="35"/>
       <c r="V41" s="36"/>
       <c r="W41" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="29">
         <v>39</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D42" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="E42" s="31" t="s">
         <v>81</v>
-      </c>
-      <c r="E42" s="31" t="s">
-        <v>78</v>
       </c>
       <c r="F42" s="32"/>
       <c r="G42" s="33"/>
@@ -5921,7 +5842,7 @@
       <c r="U42" s="35"/>
       <c r="V42" s="36"/>
       <c r="W42" s="37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -5929,27 +5850,23 @@
         <v>40</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C43" s="30" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D43" s="30" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E43" s="31" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F43" s="32"/>
       <c r="G43" s="33"/>
       <c r="H43" s="33"/>
       <c r="I43" s="33"/>
-      <c r="J43" s="34" t="s">
-        <v>307</v>
-      </c>
-      <c r="K43" s="69" t="s">
-        <v>521</v>
-      </c>
+      <c r="J43" s="34"/>
+      <c r="K43" s="34"/>
       <c r="L43" s="34"/>
       <c r="M43" s="34"/>
       <c r="N43" s="34"/>
@@ -5962,24 +5879,24 @@
       <c r="U43" s="35"/>
       <c r="V43" s="36"/>
       <c r="W43" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="29">
         <v>41</v>
       </c>
       <c r="B44" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D44" s="30" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E44" s="31" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F44" s="32"/>
       <c r="G44" s="33"/>
@@ -5999,24 +5916,24 @@
       <c r="U44" s="35"/>
       <c r="V44" s="36"/>
       <c r="W44" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="29">
         <v>42</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C45" s="30" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D45" s="30" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E45" s="31" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F45" s="32"/>
       <c r="G45" s="33"/>
@@ -6036,24 +5953,24 @@
       <c r="U45" s="35"/>
       <c r="V45" s="36"/>
       <c r="W45" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="29">
         <v>43</v>
       </c>
       <c r="B46" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C46" s="30" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D46" s="30" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E46" s="31" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F46" s="32"/>
       <c r="G46" s="33"/>
@@ -6073,24 +5990,24 @@
       <c r="U46" s="35"/>
       <c r="V46" s="36"/>
       <c r="W46" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="29">
         <v>44</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D47" s="30" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E47" s="31" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="F47" s="32"/>
       <c r="G47" s="33"/>
@@ -6108,28 +6025,28 @@
       <c r="S47" s="34"/>
       <c r="T47" s="34"/>
       <c r="U47" s="35" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="V47" s="36"/>
       <c r="W47" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="29">
         <v>45</v>
       </c>
       <c r="B48" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C48" s="30" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D48" s="30" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E48" s="31" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="F48" s="32"/>
       <c r="G48" s="33"/>
@@ -6147,28 +6064,28 @@
       <c r="S48" s="34"/>
       <c r="T48" s="34"/>
       <c r="U48" s="35" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="V48" s="36"/>
       <c r="W48" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="29">
         <v>46</v>
       </c>
       <c r="B49" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C49" s="30" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D49" s="30" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E49" s="31" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="F49" s="32"/>
       <c r="G49" s="33"/>
@@ -6186,28 +6103,28 @@
       <c r="S49" s="34"/>
       <c r="T49" s="34"/>
       <c r="U49" s="35" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="V49" s="36"/>
       <c r="W49" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="29">
         <v>47</v>
       </c>
       <c r="B50" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C50" s="30" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D50" s="30" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E50" s="31" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="F50" s="32"/>
       <c r="G50" s="33"/>
@@ -6225,11 +6142,11 @@
       <c r="S50" s="34"/>
       <c r="T50" s="34"/>
       <c r="U50" s="35" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="V50" s="36"/>
       <c r="W50" s="37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6237,71 +6154,55 @@
         <v>48</v>
       </c>
       <c r="B51" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C51" s="30" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D51" s="30" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E51" s="31" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="F51" s="32"/>
       <c r="G51" s="33"/>
       <c r="H51" s="33"/>
       <c r="I51" s="33"/>
-      <c r="J51" s="34" t="s">
-        <v>87</v>
-      </c>
+      <c r="J51" s="34"/>
       <c r="K51" s="34"/>
       <c r="L51" s="34"/>
-      <c r="M51" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="N51" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="O51" s="34" t="s">
-        <v>506</v>
-      </c>
-      <c r="P51" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q51" s="34" t="s">
-        <v>307</v>
-      </c>
-      <c r="R51" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="S51" s="68" t="s">
-        <v>507</v>
-      </c>
+      <c r="M51" s="34"/>
+      <c r="N51" s="34"/>
+      <c r="O51" s="34"/>
+      <c r="P51" s="34"/>
+      <c r="Q51" s="34"/>
+      <c r="R51" s="34"/>
+      <c r="S51" s="34"/>
       <c r="T51" s="34"/>
       <c r="U51" s="35" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="V51" s="36"/>
       <c r="W51" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="29">
         <v>49</v>
       </c>
       <c r="B52" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C52" s="30" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D52" s="30" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E52" s="31" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="F52" s="32"/>
       <c r="G52" s="33"/>
@@ -6319,28 +6220,28 @@
       <c r="S52" s="34"/>
       <c r="T52" s="34"/>
       <c r="U52" s="35" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="V52" s="36"/>
       <c r="W52" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="29">
         <v>50</v>
       </c>
       <c r="B53" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C53" s="30" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D53" s="30" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E53" s="31" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="F53" s="32"/>
       <c r="G53" s="33"/>
@@ -6358,28 +6259,28 @@
       <c r="S53" s="34"/>
       <c r="T53" s="34"/>
       <c r="U53" s="35" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="V53" s="36"/>
       <c r="W53" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="29">
         <v>51</v>
       </c>
       <c r="B54" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C54" s="30" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D54" s="30" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E54" s="31" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="F54" s="32"/>
       <c r="G54" s="33"/>
@@ -6397,28 +6298,28 @@
       <c r="S54" s="34"/>
       <c r="T54" s="34"/>
       <c r="U54" s="35" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="V54" s="36"/>
       <c r="W54" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="29">
         <v>52</v>
       </c>
       <c r="B55" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C55" s="30" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D55" s="30" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E55" s="38" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F55" s="32"/>
       <c r="G55" s="33"/>
@@ -6438,24 +6339,24 @@
       <c r="U55" s="35"/>
       <c r="V55" s="36"/>
       <c r="W55" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="29">
         <v>53</v>
       </c>
       <c r="B56" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C56" s="30" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D56" s="30" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E56" s="31" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F56" s="32"/>
       <c r="G56" s="33"/>
@@ -6475,24 +6376,24 @@
       <c r="U56" s="35"/>
       <c r="V56" s="36"/>
       <c r="W56" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="29">
         <v>54</v>
       </c>
       <c r="B57" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C57" s="30" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D57" s="30" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E57" s="31" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F57" s="32"/>
       <c r="G57" s="33"/>
@@ -6512,24 +6413,24 @@
       <c r="U57" s="35"/>
       <c r="V57" s="36"/>
       <c r="W57" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="29">
         <v>55</v>
       </c>
       <c r="B58" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C58" s="30" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D58" s="30" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E58" s="31" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F58" s="32"/>
       <c r="G58" s="33"/>
@@ -6549,24 +6450,24 @@
       <c r="U58" s="35"/>
       <c r="V58" s="36"/>
       <c r="W58" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="29">
         <v>56</v>
       </c>
       <c r="B59" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C59" s="30" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D59" s="30" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E59" s="31" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F59" s="32"/>
       <c r="G59" s="33"/>
@@ -6586,24 +6487,24 @@
       <c r="U59" s="35"/>
       <c r="V59" s="36"/>
       <c r="W59" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="29">
         <v>57</v>
       </c>
       <c r="B60" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C60" s="30" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D60" s="30" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E60" s="31" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F60" s="32"/>
       <c r="G60" s="33"/>
@@ -6623,24 +6524,24 @@
       <c r="U60" s="35"/>
       <c r="V60" s="36"/>
       <c r="W60" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="29">
         <v>58</v>
       </c>
       <c r="B61" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C61" s="30" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D61" s="30" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E61" s="31" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F61" s="32"/>
       <c r="G61" s="33"/>
@@ -6660,24 +6561,24 @@
       <c r="U61" s="35"/>
       <c r="V61" s="36"/>
       <c r="W61" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="29">
         <v>59</v>
       </c>
       <c r="B62" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C62" s="30" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D62" s="30" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E62" s="31" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F62" s="32"/>
       <c r="G62" s="33"/>
@@ -6697,24 +6598,24 @@
       <c r="U62" s="35"/>
       <c r="V62" s="36"/>
       <c r="W62" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="29">
         <v>60</v>
       </c>
       <c r="B63" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C63" s="30" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D63" s="30" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E63" s="31" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F63" s="32"/>
       <c r="G63" s="33"/>
@@ -6734,24 +6635,24 @@
       <c r="U63" s="35"/>
       <c r="V63" s="36"/>
       <c r="W63" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="29">
         <v>61</v>
       </c>
       <c r="B64" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C64" s="30" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D64" s="30" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E64" s="31" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F64" s="32"/>
       <c r="G64" s="33"/>
@@ -6771,24 +6672,24 @@
       <c r="U64" s="35"/>
       <c r="V64" s="36"/>
       <c r="W64" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="29">
         <v>62</v>
       </c>
       <c r="B65" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C65" s="30" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D65" s="30" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E65" s="31" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F65" s="32"/>
       <c r="G65" s="33"/>
@@ -6808,24 +6709,24 @@
       <c r="U65" s="35"/>
       <c r="V65" s="36"/>
       <c r="W65" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="66" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="29">
         <v>63</v>
       </c>
       <c r="B66" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C66" s="30" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D66" s="30" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E66" s="31" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F66" s="32"/>
       <c r="G66" s="33"/>
@@ -6845,24 +6746,24 @@
       <c r="U66" s="35"/>
       <c r="V66" s="36"/>
       <c r="W66" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="67" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="29">
         <v>64</v>
       </c>
       <c r="B67" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C67" s="30" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D67" s="30" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E67" s="31" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F67" s="32"/>
       <c r="G67" s="33"/>
@@ -6882,24 +6783,24 @@
       <c r="U67" s="35"/>
       <c r="V67" s="36"/>
       <c r="W67" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="68" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="29">
         <v>65</v>
       </c>
       <c r="B68" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C68" s="30" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D68" s="30" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E68" s="31" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="F68" s="32"/>
       <c r="G68" s="33"/>
@@ -6919,24 +6820,24 @@
       <c r="U68" s="35"/>
       <c r="V68" s="36"/>
       <c r="W68" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="29">
         <v>66</v>
       </c>
       <c r="B69" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C69" s="30" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E69" s="31" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="F69" s="32"/>
       <c r="G69" s="33"/>
@@ -6956,24 +6857,24 @@
       <c r="U69" s="35"/>
       <c r="V69" s="36"/>
       <c r="W69" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="70" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="29">
         <v>67</v>
       </c>
       <c r="B70" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C70" s="30" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D70" s="30" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E70" s="31" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="F70" s="32"/>
       <c r="G70" s="33"/>
@@ -6993,24 +6894,24 @@
       <c r="U70" s="35"/>
       <c r="V70" s="36"/>
       <c r="W70" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="71" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="29">
         <v>68</v>
       </c>
       <c r="B71" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C71" s="30" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D71" s="30" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E71" s="31" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="F71" s="32"/>
       <c r="G71" s="33"/>
@@ -7030,24 +6931,24 @@
       <c r="U71" s="35"/>
       <c r="V71" s="36"/>
       <c r="W71" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="72" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="29">
         <v>69</v>
       </c>
       <c r="B72" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C72" s="30" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D72" s="30" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E72" s="31" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F72" s="32"/>
       <c r="G72" s="33"/>
@@ -7067,24 +6968,24 @@
       <c r="U72" s="35"/>
       <c r="V72" s="36"/>
       <c r="W72" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="73" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="29">
         <v>70</v>
       </c>
       <c r="B73" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C73" s="30" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D73" s="30" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E73" s="31" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="F73" s="32"/>
       <c r="G73" s="33"/>
@@ -7104,24 +7005,24 @@
       <c r="U73" s="35"/>
       <c r="V73" s="36"/>
       <c r="W73" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="74" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="29">
         <v>71</v>
       </c>
       <c r="B74" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C74" s="30" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D74" s="30" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E74" s="31" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F74" s="32"/>
       <c r="G74" s="33"/>
@@ -7141,24 +7042,24 @@
       <c r="U74" s="35"/>
       <c r="V74" s="36"/>
       <c r="W74" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="75" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="29">
         <v>72</v>
       </c>
       <c r="B75" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C75" s="30" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D75" s="30" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E75" s="31" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F75" s="32"/>
       <c r="G75" s="33"/>
@@ -7178,24 +7079,24 @@
       <c r="U75" s="35"/>
       <c r="V75" s="36"/>
       <c r="W75" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="76" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="29">
         <v>73</v>
       </c>
       <c r="B76" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C76" s="30" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D76" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E76" s="31" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F76" s="32"/>
       <c r="G76" s="33"/>
@@ -7215,24 +7116,24 @@
       <c r="U76" s="35"/>
       <c r="V76" s="36"/>
       <c r="W76" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="77" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="29">
         <v>74</v>
       </c>
       <c r="B77" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C77" s="30" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D77" s="30" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E77" s="31" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="F77" s="32"/>
       <c r="G77" s="33"/>
@@ -7252,24 +7153,24 @@
       <c r="U77" s="35"/>
       <c r="V77" s="36"/>
       <c r="W77" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="78" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="29">
         <v>75</v>
       </c>
       <c r="B78" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C78" s="30" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D78" s="30" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E78" s="31" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F78" s="32"/>
       <c r="G78" s="33"/>
@@ -7289,24 +7190,24 @@
       <c r="U78" s="35"/>
       <c r="V78" s="36"/>
       <c r="W78" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="79" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="29">
         <v>76</v>
       </c>
       <c r="B79" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C79" s="30" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D79" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E79" s="31" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F79" s="32"/>
       <c r="G79" s="33"/>
@@ -7326,24 +7227,24 @@
       <c r="U79" s="35"/>
       <c r="V79" s="36"/>
       <c r="W79" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="80" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="29">
         <v>77</v>
       </c>
       <c r="B80" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C80" s="30" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D80" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E80" s="31" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F80" s="32"/>
       <c r="G80" s="33"/>
@@ -7363,24 +7264,24 @@
       <c r="U80" s="35"/>
       <c r="V80" s="36"/>
       <c r="W80" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="81" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="29">
         <v>78</v>
       </c>
       <c r="B81" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C81" s="30" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D81" s="30" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E81" s="31" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F81" s="32"/>
       <c r="G81" s="33"/>
@@ -7400,24 +7301,24 @@
       <c r="U81" s="35"/>
       <c r="V81" s="36"/>
       <c r="W81" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="82" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="29">
         <v>79</v>
       </c>
       <c r="B82" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C82" s="30" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D82" s="30" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E82" s="31" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F82" s="32"/>
       <c r="G82" s="33"/>
@@ -7437,24 +7338,24 @@
       <c r="U82" s="35"/>
       <c r="V82" s="36"/>
       <c r="W82" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="83" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="29">
         <v>80</v>
       </c>
       <c r="B83" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C83" s="30" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D83" s="30" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E83" s="31" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F83" s="32"/>
       <c r="G83" s="33"/>
@@ -7474,24 +7375,24 @@
       <c r="U83" s="35"/>
       <c r="V83" s="36"/>
       <c r="W83" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="84" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="29">
         <v>81</v>
       </c>
       <c r="B84" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C84" s="30" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D84" s="30" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E84" s="31" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="F84" s="32"/>
       <c r="G84" s="33"/>
@@ -7511,24 +7412,24 @@
       <c r="U84" s="35"/>
       <c r="V84" s="36"/>
       <c r="W84" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="85" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="29">
         <v>82</v>
       </c>
       <c r="B85" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C85" s="30" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D85" s="30" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E85" s="31" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="F85" s="32"/>
       <c r="G85" s="33"/>
@@ -7548,24 +7449,24 @@
       <c r="U85" s="35"/>
       <c r="V85" s="36"/>
       <c r="W85" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="86" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="29">
         <v>83</v>
       </c>
       <c r="B86" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C86" s="30" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D86" s="30" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E86" s="31" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F86" s="32"/>
       <c r="G86" s="33"/>
@@ -7585,24 +7486,24 @@
       <c r="U86" s="35"/>
       <c r="V86" s="36"/>
       <c r="W86" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="87" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="29">
         <v>84</v>
       </c>
       <c r="B87" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C87" s="30" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D87" s="30" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E87" s="31" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F87" s="32"/>
       <c r="G87" s="33"/>
@@ -7622,24 +7523,24 @@
       <c r="U87" s="35"/>
       <c r="V87" s="36"/>
       <c r="W87" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="88" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="29">
         <v>85</v>
       </c>
       <c r="B88" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C88" s="30" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D88" s="30" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E88" s="31" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="F88" s="32"/>
       <c r="G88" s="33"/>
@@ -7659,24 +7560,24 @@
       <c r="U88" s="35"/>
       <c r="V88" s="36"/>
       <c r="W88" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="89" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="29">
         <v>86</v>
       </c>
       <c r="B89" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C89" s="30" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D89" s="30" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E89" s="31" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="F89" s="32"/>
       <c r="G89" s="33"/>
@@ -7696,24 +7597,24 @@
       <c r="U89" s="35"/>
       <c r="V89" s="36"/>
       <c r="W89" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="90" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="29">
         <v>87</v>
       </c>
       <c r="B90" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C90" s="30" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D90" s="30" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E90" s="31" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="F90" s="32"/>
       <c r="G90" s="33"/>
@@ -7733,24 +7634,24 @@
       <c r="U90" s="35"/>
       <c r="V90" s="36"/>
       <c r="W90" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="91" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="29">
         <v>88</v>
       </c>
       <c r="B91" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C91" s="30" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D91" s="30" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E91" s="31" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="F91" s="32"/>
       <c r="G91" s="33"/>
@@ -7770,24 +7671,24 @@
       <c r="U91" s="35"/>
       <c r="V91" s="36"/>
       <c r="W91" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="92" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="29">
         <v>89</v>
       </c>
       <c r="B92" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C92" s="30" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D92" s="30" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E92" s="31" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F92" s="32"/>
       <c r="G92" s="33"/>
@@ -7807,24 +7708,24 @@
       <c r="U92" s="35"/>
       <c r="V92" s="36"/>
       <c r="W92" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="93" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="29">
         <v>90</v>
       </c>
       <c r="B93" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C93" s="30" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D93" s="30" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E93" s="31" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F93" s="32"/>
       <c r="G93" s="33"/>
@@ -7844,24 +7745,24 @@
       <c r="U93" s="35"/>
       <c r="V93" s="36"/>
       <c r="W93" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="94" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="29">
         <v>91</v>
       </c>
       <c r="B94" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C94" s="30" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D94" s="30" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E94" s="31" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="F94" s="32"/>
       <c r="G94" s="33"/>
@@ -7881,24 +7782,24 @@
       <c r="U94" s="35"/>
       <c r="V94" s="36"/>
       <c r="W94" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="95" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="29">
         <v>92</v>
       </c>
       <c r="B95" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C95" s="30" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D95" s="30" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E95" s="31" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F95" s="32"/>
       <c r="G95" s="33"/>
@@ -7918,24 +7819,24 @@
       <c r="U95" s="35"/>
       <c r="V95" s="36"/>
       <c r="W95" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="96" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="29">
         <v>93</v>
       </c>
       <c r="B96" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C96" s="30" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D96" s="30" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E96" s="31" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="F96" s="32"/>
       <c r="G96" s="33"/>
@@ -7955,24 +7856,24 @@
       <c r="U96" s="35"/>
       <c r="V96" s="36"/>
       <c r="W96" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="97" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="29">
         <v>94</v>
       </c>
       <c r="B97" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C97" s="30" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D97" s="30" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E97" s="31" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="F97" s="32"/>
       <c r="G97" s="33"/>
@@ -7992,24 +7893,24 @@
       <c r="U97" s="35"/>
       <c r="V97" s="36"/>
       <c r="W97" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="98" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="29">
         <v>95</v>
       </c>
       <c r="B98" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C98" s="30" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D98" s="30" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E98" s="31" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="F98" s="32"/>
       <c r="G98" s="33"/>
@@ -8029,24 +7930,24 @@
       <c r="U98" s="35"/>
       <c r="V98" s="36"/>
       <c r="W98" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="99" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="29">
         <v>96</v>
       </c>
       <c r="B99" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C99" s="30" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D99" s="30" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E99" s="31" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F99" s="32"/>
       <c r="G99" s="33"/>
@@ -8066,24 +7967,24 @@
       <c r="U99" s="35"/>
       <c r="V99" s="36"/>
       <c r="W99" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="100" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="29">
         <v>97</v>
       </c>
       <c r="B100" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C100" s="30" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D100" s="30" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E100" s="31" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="F100" s="32"/>
       <c r="G100" s="33"/>
@@ -8103,24 +8004,24 @@
       <c r="U100" s="35"/>
       <c r="V100" s="36"/>
       <c r="W100" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="101" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="29">
         <v>98</v>
       </c>
       <c r="B101" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C101" s="30" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D101" s="30" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E101" s="31" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F101" s="32"/>
       <c r="G101" s="33"/>
@@ -8140,24 +8041,24 @@
       <c r="U101" s="35"/>
       <c r="V101" s="36"/>
       <c r="W101" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="102" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="29">
         <v>99</v>
       </c>
       <c r="B102" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C102" s="30" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D102" s="30" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E102" s="31" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="F102" s="32"/>
       <c r="G102" s="33"/>
@@ -8177,24 +8078,24 @@
       <c r="U102" s="35"/>
       <c r="V102" s="36"/>
       <c r="W102" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="103" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="29">
         <v>100</v>
       </c>
       <c r="B103" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C103" s="30" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D103" s="30" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E103" s="31" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F103" s="32"/>
       <c r="G103" s="33"/>
@@ -8214,24 +8115,24 @@
       <c r="U103" s="35"/>
       <c r="V103" s="36"/>
       <c r="W103" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="104" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="29">
         <v>101</v>
       </c>
       <c r="B104" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C104" s="30" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D104" s="30" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E104" s="31" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="F104" s="32"/>
       <c r="G104" s="33"/>
@@ -8251,24 +8152,24 @@
       <c r="U104" s="35"/>
       <c r="V104" s="36"/>
       <c r="W104" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="105" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" s="29">
         <v>102</v>
       </c>
       <c r="B105" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C105" s="30" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D105" s="30" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E105" s="31" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F105" s="32"/>
       <c r="G105" s="33"/>
@@ -8288,24 +8189,24 @@
       <c r="U105" s="35"/>
       <c r="V105" s="36"/>
       <c r="W105" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="106" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106" s="29">
         <v>103</v>
       </c>
       <c r="B106" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C106" s="30" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D106" s="30" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E106" s="31" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="F106" s="32"/>
       <c r="G106" s="33"/>
@@ -8325,24 +8226,24 @@
       <c r="U106" s="35"/>
       <c r="V106" s="36"/>
       <c r="W106" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="107" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A107" s="29">
         <v>104</v>
       </c>
       <c r="B107" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C107" s="30" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D107" s="30" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E107" s="31" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F107" s="32"/>
       <c r="G107" s="33"/>
@@ -8362,24 +8263,24 @@
       <c r="U107" s="35"/>
       <c r="V107" s="36"/>
       <c r="W107" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="108" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A108" s="29">
         <v>105</v>
       </c>
       <c r="B108" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C108" s="30" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D108" s="30" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E108" s="31" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F108" s="32"/>
       <c r="G108" s="33"/>
@@ -8399,24 +8300,24 @@
       <c r="U108" s="35"/>
       <c r="V108" s="36"/>
       <c r="W108" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="109" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A109" s="29">
         <v>106</v>
       </c>
       <c r="B109" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C109" s="30" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D109" s="30" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E109" s="31" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="F109" s="32"/>
       <c r="G109" s="33"/>
@@ -8436,24 +8337,24 @@
       <c r="U109" s="35"/>
       <c r="V109" s="36"/>
       <c r="W109" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="110" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A110" s="29">
         <v>107</v>
       </c>
       <c r="B110" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C110" s="30" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D110" s="30" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E110" s="31" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F110" s="32"/>
       <c r="G110" s="33"/>
@@ -8473,24 +8374,24 @@
       <c r="U110" s="35"/>
       <c r="V110" s="36"/>
       <c r="W110" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="111" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A111" s="29">
         <v>108</v>
       </c>
       <c r="B111" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C111" s="30" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D111" s="30" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E111" s="31" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="F111" s="32"/>
       <c r="G111" s="33"/>
@@ -8510,24 +8411,24 @@
       <c r="U111" s="35"/>
       <c r="V111" s="36"/>
       <c r="W111" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="112" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A112" s="29">
         <v>109</v>
       </c>
       <c r="B112" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C112" s="30" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D112" s="30" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E112" s="31" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="F112" s="32"/>
       <c r="G112" s="33"/>
@@ -8547,24 +8448,24 @@
       <c r="U112" s="35"/>
       <c r="V112" s="36"/>
       <c r="W112" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="113" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A113" s="29">
         <v>110</v>
       </c>
       <c r="B113" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C113" s="30" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D113" s="30" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E113" s="31" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F113" s="32"/>
       <c r="G113" s="33"/>
@@ -8584,24 +8485,24 @@
       <c r="U113" s="35"/>
       <c r="V113" s="36"/>
       <c r="W113" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="114" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A114" s="29">
         <v>111</v>
       </c>
       <c r="B114" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C114" s="30" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D114" s="30" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E114" s="31" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="F114" s="32"/>
       <c r="G114" s="33"/>
@@ -8621,24 +8522,24 @@
       <c r="U114" s="35"/>
       <c r="V114" s="36"/>
       <c r="W114" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="115" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A115" s="29">
         <v>112</v>
       </c>
       <c r="B115" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C115" s="30" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D115" s="30" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E115" s="31" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="F115" s="32"/>
       <c r="G115" s="33"/>
@@ -8658,24 +8559,24 @@
       <c r="U115" s="35"/>
       <c r="V115" s="36"/>
       <c r="W115" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="116" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A116" s="29">
         <v>113</v>
       </c>
       <c r="B116" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C116" s="30" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D116" s="30" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E116" s="31" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="F116" s="32"/>
       <c r="G116" s="33"/>
@@ -8695,24 +8596,24 @@
       <c r="U116" s="35"/>
       <c r="V116" s="36"/>
       <c r="W116" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="117" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A117" s="29">
         <v>114</v>
       </c>
       <c r="B117" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C117" s="30" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D117" s="30" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E117" s="31" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="F117" s="32"/>
       <c r="G117" s="33"/>
@@ -8732,24 +8633,24 @@
       <c r="U117" s="35"/>
       <c r="V117" s="36"/>
       <c r="W117" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="118" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A118" s="29">
         <v>115</v>
       </c>
       <c r="B118" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C118" s="30" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D118" s="30" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E118" s="31" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="F118" s="32"/>
       <c r="G118" s="33"/>
@@ -8769,24 +8670,24 @@
       <c r="U118" s="35"/>
       <c r="V118" s="36"/>
       <c r="W118" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="119" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A119" s="29">
         <v>116</v>
       </c>
       <c r="B119" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C119" s="30" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D119" s="30" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E119" s="31" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="F119" s="32"/>
       <c r="G119" s="33"/>
@@ -8806,24 +8707,24 @@
       <c r="U119" s="35"/>
       <c r="V119" s="36"/>
       <c r="W119" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="120" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A120" s="29">
         <v>117</v>
       </c>
       <c r="B120" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C120" s="30" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D120" s="30" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E120" s="31" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="F120" s="32"/>
       <c r="G120" s="33"/>
@@ -8843,24 +8744,24 @@
       <c r="U120" s="35"/>
       <c r="V120" s="36"/>
       <c r="W120" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="121" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A121" s="29">
         <v>118</v>
       </c>
       <c r="B121" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C121" s="30" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D121" s="30" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E121" s="31" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="F121" s="32"/>
       <c r="G121" s="33"/>
@@ -8880,24 +8781,24 @@
       <c r="U121" s="35"/>
       <c r="V121" s="36"/>
       <c r="W121" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="122" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A122" s="29">
         <v>119</v>
       </c>
       <c r="B122" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C122" s="30" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D122" s="30" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E122" s="31" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="F122" s="32"/>
       <c r="G122" s="33"/>
@@ -8917,24 +8818,24 @@
       <c r="U122" s="35"/>
       <c r="V122" s="36"/>
       <c r="W122" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="123" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A123" s="29">
         <v>120</v>
       </c>
       <c r="B123" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C123" s="30" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D123" s="30" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E123" s="31" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="F123" s="32"/>
       <c r="G123" s="33"/>
@@ -8954,24 +8855,24 @@
       <c r="U123" s="35"/>
       <c r="V123" s="36"/>
       <c r="W123" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="124" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A124" s="29">
         <v>121</v>
       </c>
       <c r="B124" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C124" s="30" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D124" s="30" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E124" s="31" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="F124" s="32"/>
       <c r="G124" s="33"/>
@@ -8991,24 +8892,24 @@
       <c r="U124" s="35"/>
       <c r="V124" s="36"/>
       <c r="W124" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="125" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A125" s="29">
         <v>122</v>
       </c>
       <c r="B125" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C125" s="30" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D125" s="30" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E125" s="31" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F125" s="32"/>
       <c r="G125" s="33"/>
@@ -9028,24 +8929,24 @@
       <c r="U125" s="35"/>
       <c r="V125" s="36"/>
       <c r="W125" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="126" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A126" s="29">
         <v>123</v>
       </c>
       <c r="B126" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C126" s="30" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D126" s="30" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E126" s="31" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F126" s="32"/>
       <c r="G126" s="33"/>
@@ -9065,24 +8966,24 @@
       <c r="U126" s="35"/>
       <c r="V126" s="36"/>
       <c r="W126" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="127" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A127" s="29">
         <v>124</v>
       </c>
       <c r="B127" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C127" s="30" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D127" s="30" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E127" s="31" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F127" s="32"/>
       <c r="G127" s="33"/>
@@ -9102,24 +9003,24 @@
       <c r="U127" s="35"/>
       <c r="V127" s="36"/>
       <c r="W127" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="128" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A128" s="29">
         <v>125</v>
       </c>
       <c r="B128" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C128" s="30" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D128" s="30" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E128" s="31" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="F128" s="32"/>
       <c r="G128" s="33"/>
@@ -9139,24 +9040,24 @@
       <c r="U128" s="35"/>
       <c r="V128" s="36"/>
       <c r="W128" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="129" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A129" s="29">
         <v>126</v>
       </c>
       <c r="B129" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C129" s="30" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D129" s="30" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E129" s="31" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F129" s="32"/>
       <c r="G129" s="33"/>
@@ -9176,24 +9077,24 @@
       <c r="U129" s="35"/>
       <c r="V129" s="36"/>
       <c r="W129" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="130" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="130" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A130" s="29">
         <v>127</v>
       </c>
       <c r="B130" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C130" s="30" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D130" s="30" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E130" s="31" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F130" s="32"/>
       <c r="G130" s="33"/>
@@ -9213,24 +9114,24 @@
       <c r="U130" s="35"/>
       <c r="V130" s="36"/>
       <c r="W130" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="131" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="131" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A131" s="29">
         <v>128</v>
       </c>
       <c r="B131" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C131" s="30" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D131" s="30" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E131" s="31" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F131" s="32"/>
       <c r="G131" s="33"/>
@@ -9250,24 +9151,24 @@
       <c r="U131" s="35"/>
       <c r="V131" s="36"/>
       <c r="W131" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="132" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A132" s="29">
         <v>129</v>
       </c>
       <c r="B132" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C132" s="30" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D132" s="30" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E132" s="31" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="F132" s="32"/>
       <c r="G132" s="33"/>
@@ -9287,24 +9188,24 @@
       <c r="U132" s="35"/>
       <c r="V132" s="36"/>
       <c r="W132" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="133" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A133" s="29">
         <v>130</v>
       </c>
       <c r="B133" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C133" s="30" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D133" s="30" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E133" s="31" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F133" s="32"/>
       <c r="G133" s="33"/>
@@ -9324,24 +9225,24 @@
       <c r="U133" s="35"/>
       <c r="V133" s="36"/>
       <c r="W133" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="134" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A134" s="29">
         <v>131</v>
       </c>
       <c r="B134" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C134" s="30" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D134" s="30" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E134" s="31" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F134" s="32"/>
       <c r="G134" s="33"/>
@@ -9361,24 +9262,24 @@
       <c r="U134" s="35"/>
       <c r="V134" s="36"/>
       <c r="W134" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="135" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="135" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A135" s="29">
         <v>132</v>
       </c>
       <c r="B135" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C135" s="30" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D135" s="30" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E135" s="31" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F135" s="32"/>
       <c r="G135" s="33"/>
@@ -9398,24 +9299,24 @@
       <c r="U135" s="35"/>
       <c r="V135" s="36"/>
       <c r="W135" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="136" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="136" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A136" s="29">
         <v>133</v>
       </c>
       <c r="B136" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C136" s="30" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D136" s="30" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E136" s="31" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F136" s="32"/>
       <c r="G136" s="33"/>
@@ -9435,24 +9336,24 @@
       <c r="U136" s="35"/>
       <c r="V136" s="36"/>
       <c r="W136" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="137" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="137" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A137" s="29">
         <v>134</v>
       </c>
       <c r="B137" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C137" s="30" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D137" s="30" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E137" s="31" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F137" s="32"/>
       <c r="G137" s="33"/>
@@ -9472,24 +9373,24 @@
       <c r="U137" s="35"/>
       <c r="V137" s="36"/>
       <c r="W137" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="138" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="138" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A138" s="29">
         <v>135</v>
       </c>
       <c r="B138" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C138" s="30" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D138" s="30" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E138" s="31" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F138" s="32"/>
       <c r="G138" s="33"/>
@@ -9509,24 +9410,24 @@
       <c r="U138" s="35"/>
       <c r="V138" s="36"/>
       <c r="W138" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="139" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="139" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A139" s="29">
         <v>136</v>
       </c>
       <c r="B139" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C139" s="30" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D139" s="30" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E139" s="31" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F139" s="32"/>
       <c r="G139" s="33"/>
@@ -9546,24 +9447,24 @@
       <c r="U139" s="35"/>
       <c r="V139" s="36"/>
       <c r="W139" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="140" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="140" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A140" s="29">
         <v>137</v>
       </c>
       <c r="B140" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C140" s="30" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D140" s="30" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E140" s="31" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F140" s="32"/>
       <c r="G140" s="33"/>
@@ -9583,24 +9484,24 @@
       <c r="U140" s="35"/>
       <c r="V140" s="36"/>
       <c r="W140" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="141" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="141" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A141" s="29">
         <v>138</v>
       </c>
       <c r="B141" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C141" s="30" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D141" s="30" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E141" s="31" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F141" s="32"/>
       <c r="G141" s="33"/>
@@ -9620,24 +9521,24 @@
       <c r="U141" s="35"/>
       <c r="V141" s="36"/>
       <c r="W141" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="142" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="142" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A142" s="29">
         <v>139</v>
       </c>
       <c r="B142" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C142" s="30" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D142" s="30" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E142" s="31" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F142" s="32"/>
       <c r="G142" s="33"/>
@@ -9657,24 +9558,24 @@
       <c r="U142" s="35"/>
       <c r="V142" s="36"/>
       <c r="W142" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="143" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="143" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A143" s="29">
         <v>140</v>
       </c>
       <c r="B143" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C143" s="30" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D143" s="30" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E143" s="31" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F143" s="32"/>
       <c r="G143" s="33"/>
@@ -9694,24 +9595,24 @@
       <c r="U143" s="35"/>
       <c r="V143" s="36"/>
       <c r="W143" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="144" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="144" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A144" s="29">
         <v>141</v>
       </c>
       <c r="B144" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C144" s="30" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D144" s="30" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E144" s="31" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F144" s="32"/>
       <c r="G144" s="33"/>
@@ -9731,24 +9632,24 @@
       <c r="U144" s="35"/>
       <c r="V144" s="36"/>
       <c r="W144" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="145" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="145" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A145" s="29">
         <v>142</v>
       </c>
       <c r="B145" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C145" s="30" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D145" s="30" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E145" s="31" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F145" s="32"/>
       <c r="G145" s="33"/>
@@ -9768,24 +9669,24 @@
       <c r="U145" s="35"/>
       <c r="V145" s="36"/>
       <c r="W145" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="146" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="146" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A146" s="29">
         <v>143</v>
       </c>
       <c r="B146" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C146" s="30" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D146" s="30" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E146" s="31" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F146" s="32"/>
       <c r="G146" s="33"/>
@@ -9805,24 +9706,24 @@
       <c r="U146" s="35"/>
       <c r="V146" s="36"/>
       <c r="W146" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="147" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="147" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A147" s="29">
         <v>144</v>
       </c>
       <c r="B147" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C147" s="30" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D147" s="30" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E147" s="31" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F147" s="32"/>
       <c r="G147" s="33"/>
@@ -9842,24 +9743,24 @@
       <c r="U147" s="35"/>
       <c r="V147" s="36"/>
       <c r="W147" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="148" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="148" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A148" s="29">
         <v>145</v>
       </c>
       <c r="B148" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C148" s="30" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D148" s="30" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E148" s="31" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="F148" s="32"/>
       <c r="G148" s="33"/>
@@ -9879,24 +9780,24 @@
       <c r="U148" s="35"/>
       <c r="V148" s="36"/>
       <c r="W148" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="149" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="149" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A149" s="29">
         <v>146</v>
       </c>
       <c r="B149" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C149" s="30" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D149" s="30" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E149" s="31" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="F149" s="32"/>
       <c r="G149" s="33"/>
@@ -9916,7 +9817,7 @@
       <c r="U149" s="35"/>
       <c r="V149" s="36"/>
       <c r="W149" s="37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="150" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -9924,32 +9825,22 @@
         <v>147</v>
       </c>
       <c r="B150" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C150" s="30" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D150" s="30" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E150" s="31" t="s">
-        <v>469</v>
-      </c>
-      <c r="F150" s="32">
-        <v>45548</v>
-      </c>
-      <c r="G150" s="33" t="s">
-        <v>511</v>
-      </c>
-      <c r="H150" s="33" t="s">
-        <v>512</v>
-      </c>
-      <c r="I150" s="33" t="s">
-        <v>513</v>
-      </c>
-      <c r="J150" s="34" t="s">
-        <v>87</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="F150" s="32"/>
+      <c r="G150" s="33"/>
+      <c r="H150" s="33"/>
+      <c r="I150" s="33"/>
+      <c r="J150" s="34"/>
       <c r="K150" s="34"/>
       <c r="L150" s="34"/>
       <c r="M150" s="34"/>
@@ -9963,7 +9854,7 @@
       <c r="U150" s="35"/>
       <c r="V150" s="36"/>
       <c r="W150" s="37" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="151" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -9971,32 +9862,22 @@
         <v>148</v>
       </c>
       <c r="B151" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C151" s="30" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D151" s="30" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E151" s="31" t="s">
-        <v>470</v>
-      </c>
-      <c r="F151" s="32">
-        <v>45548</v>
-      </c>
-      <c r="G151" s="33" t="s">
-        <v>511</v>
-      </c>
-      <c r="H151" s="33" t="s">
-        <v>514</v>
-      </c>
-      <c r="I151" s="33" t="s">
-        <v>515</v>
-      </c>
-      <c r="J151" s="34" t="s">
-        <v>87</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="F151" s="32"/>
+      <c r="G151" s="33"/>
+      <c r="H151" s="33"/>
+      <c r="I151" s="33"/>
+      <c r="J151" s="34"/>
       <c r="K151" s="34"/>
       <c r="L151" s="34"/>
       <c r="M151" s="34"/>
@@ -10010,7 +9891,7 @@
       <c r="U151" s="35"/>
       <c r="V151" s="36"/>
       <c r="W151" s="37" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="152" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -10018,32 +9899,22 @@
         <v>149</v>
       </c>
       <c r="B152" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C152" s="30" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D152" s="30" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E152" s="31" t="s">
-        <v>471</v>
-      </c>
-      <c r="F152" s="32">
-        <v>45548</v>
-      </c>
-      <c r="G152" s="33" t="s">
-        <v>516</v>
-      </c>
-      <c r="H152" s="33" t="s">
-        <v>517</v>
-      </c>
-      <c r="I152" s="33" t="s">
-        <v>518</v>
-      </c>
-      <c r="J152" s="34" t="s">
-        <v>87</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="F152" s="32"/>
+      <c r="G152" s="33"/>
+      <c r="H152" s="33"/>
+      <c r="I152" s="33"/>
+      <c r="J152" s="34"/>
       <c r="K152" s="34"/>
       <c r="L152" s="34"/>
       <c r="M152" s="34"/>
@@ -10057,7 +9928,7 @@
       <c r="U152" s="35"/>
       <c r="V152" s="36"/>
       <c r="W152" s="37" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="153" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -10065,32 +9936,22 @@
         <v>150</v>
       </c>
       <c r="B153" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C153" s="30" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D153" s="30" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E153" s="31" t="s">
-        <v>472</v>
-      </c>
-      <c r="F153" s="32">
-        <v>45548</v>
-      </c>
-      <c r="G153" s="33" t="s">
-        <v>516</v>
-      </c>
-      <c r="H153" s="33" t="s">
-        <v>519</v>
-      </c>
-      <c r="I153" s="33" t="s">
-        <v>520</v>
-      </c>
-      <c r="J153" s="34" t="s">
-        <v>87</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="F153" s="32"/>
+      <c r="G153" s="33"/>
+      <c r="H153" s="33"/>
+      <c r="I153" s="33"/>
+      <c r="J153" s="34"/>
       <c r="K153" s="34"/>
       <c r="L153" s="34"/>
       <c r="M153" s="34"/>
@@ -10104,7 +9965,7 @@
       <c r="U153" s="35"/>
       <c r="V153" s="36"/>
       <c r="W153" s="37" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="154" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -10112,27 +9973,23 @@
         <v>151</v>
       </c>
       <c r="B154" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C154" s="30" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D154" s="30" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E154" s="31" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F154" s="32"/>
       <c r="G154" s="33"/>
       <c r="H154" s="33"/>
       <c r="I154" s="33"/>
-      <c r="J154" s="34" t="s">
-        <v>307</v>
-      </c>
-      <c r="K154" s="34" t="s">
-        <v>317</v>
-      </c>
+      <c r="J154" s="34"/>
+      <c r="K154" s="34"/>
       <c r="L154" s="34"/>
       <c r="M154" s="34"/>
       <c r="N154" s="34"/>
@@ -10145,7 +10002,7 @@
       <c r="U154" s="35"/>
       <c r="V154" s="36"/>
       <c r="W154" s="37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="155" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -10153,27 +10010,23 @@
         <v>152</v>
       </c>
       <c r="B155" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C155" s="30" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D155" s="30" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E155" s="31" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="F155" s="32"/>
       <c r="G155" s="33"/>
       <c r="H155" s="33"/>
       <c r="I155" s="33"/>
-      <c r="J155" s="34" t="s">
-        <v>307</v>
-      </c>
-      <c r="K155" s="34" t="s">
-        <v>317</v>
-      </c>
+      <c r="J155" s="34"/>
+      <c r="K155" s="34"/>
       <c r="L155" s="34"/>
       <c r="M155" s="34"/>
       <c r="N155" s="34"/>
@@ -10186,7 +10039,7 @@
       <c r="U155" s="35"/>
       <c r="V155" s="36"/>
       <c r="W155" s="37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="156" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -10194,27 +10047,23 @@
         <v>153</v>
       </c>
       <c r="B156" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C156" s="30" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D156" s="30" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E156" s="31" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="F156" s="32"/>
       <c r="G156" s="33"/>
       <c r="H156" s="33"/>
       <c r="I156" s="33"/>
-      <c r="J156" s="34" t="s">
-        <v>307</v>
-      </c>
-      <c r="K156" s="34" t="s">
-        <v>317</v>
-      </c>
+      <c r="J156" s="34"/>
+      <c r="K156" s="34"/>
       <c r="L156" s="34"/>
       <c r="M156" s="34"/>
       <c r="N156" s="34"/>
@@ -10227,7 +10076,7 @@
       <c r="U156" s="35"/>
       <c r="V156" s="36"/>
       <c r="W156" s="37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="157" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -10235,27 +10084,23 @@
         <v>154</v>
       </c>
       <c r="B157" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C157" s="30" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D157" s="30" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E157" s="31" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F157" s="32"/>
       <c r="G157" s="33"/>
       <c r="H157" s="33"/>
       <c r="I157" s="33"/>
-      <c r="J157" s="34" t="s">
-        <v>307</v>
-      </c>
-      <c r="K157" s="34" t="s">
-        <v>317</v>
-      </c>
+      <c r="J157" s="34"/>
+      <c r="K157" s="34"/>
       <c r="L157" s="34"/>
       <c r="M157" s="34"/>
       <c r="N157" s="34"/>
@@ -10268,7 +10113,7 @@
       <c r="U157" s="35"/>
       <c r="V157" s="36"/>
       <c r="W157" s="37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="158" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -10276,27 +10121,23 @@
         <v>155</v>
       </c>
       <c r="B158" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C158" s="30" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D158" s="30" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E158" s="31" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F158" s="32"/>
       <c r="G158" s="33"/>
       <c r="H158" s="33"/>
       <c r="I158" s="33"/>
-      <c r="J158" s="34" t="s">
-        <v>307</v>
-      </c>
-      <c r="K158" s="34" t="s">
-        <v>317</v>
-      </c>
+      <c r="J158" s="34"/>
+      <c r="K158" s="34"/>
       <c r="L158" s="34"/>
       <c r="M158" s="34"/>
       <c r="N158" s="34"/>
@@ -10309,7 +10150,7 @@
       <c r="U158" s="35"/>
       <c r="V158" s="36"/>
       <c r="W158" s="37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="159" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -10317,27 +10158,23 @@
         <v>156</v>
       </c>
       <c r="B159" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C159" s="30" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D159" s="30" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E159" s="31" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="F159" s="32"/>
       <c r="G159" s="33"/>
       <c r="H159" s="33"/>
       <c r="I159" s="33"/>
-      <c r="J159" s="34" t="s">
-        <v>307</v>
-      </c>
-      <c r="K159" s="34" t="s">
-        <v>317</v>
-      </c>
+      <c r="J159" s="34"/>
+      <c r="K159" s="34"/>
       <c r="L159" s="34"/>
       <c r="M159" s="34"/>
       <c r="N159" s="34"/>
@@ -10350,7 +10187,7 @@
       <c r="U159" s="35"/>
       <c r="V159" s="36"/>
       <c r="W159" s="37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="160" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -10358,27 +10195,23 @@
         <v>157</v>
       </c>
       <c r="B160" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C160" s="30" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D160" s="30" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E160" s="31" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="F160" s="32"/>
       <c r="G160" s="33"/>
       <c r="H160" s="33"/>
       <c r="I160" s="33"/>
-      <c r="J160" s="34" t="s">
-        <v>307</v>
-      </c>
-      <c r="K160" s="34" t="s">
-        <v>317</v>
-      </c>
+      <c r="J160" s="34"/>
+      <c r="K160" s="34"/>
       <c r="L160" s="34"/>
       <c r="M160" s="34"/>
       <c r="N160" s="34"/>
@@ -10391,7 +10224,7 @@
       <c r="U160" s="35"/>
       <c r="V160" s="36"/>
       <c r="W160" s="37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="161" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -10399,27 +10232,23 @@
         <v>158</v>
       </c>
       <c r="B161" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C161" s="30" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D161" s="30" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E161" s="31" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="F161" s="32"/>
       <c r="G161" s="33"/>
       <c r="H161" s="33"/>
       <c r="I161" s="33"/>
-      <c r="J161" s="34" t="s">
-        <v>307</v>
-      </c>
-      <c r="K161" s="34" t="s">
-        <v>317</v>
-      </c>
+      <c r="J161" s="34"/>
+      <c r="K161" s="34"/>
       <c r="L161" s="34"/>
       <c r="M161" s="34"/>
       <c r="N161" s="34"/>
@@ -10432,7 +10261,7 @@
       <c r="U161" s="35"/>
       <c r="V161" s="36"/>
       <c r="W161" s="37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="162" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -10440,27 +10269,23 @@
         <v>159</v>
       </c>
       <c r="B162" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C162" s="30" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D162" s="30" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E162" s="31" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="F162" s="32"/>
       <c r="G162" s="33"/>
       <c r="H162" s="33"/>
       <c r="I162" s="33"/>
-      <c r="J162" s="34" t="s">
-        <v>307</v>
-      </c>
-      <c r="K162" s="34" t="s">
-        <v>317</v>
-      </c>
+      <c r="J162" s="34"/>
+      <c r="K162" s="34"/>
       <c r="L162" s="34"/>
       <c r="M162" s="34"/>
       <c r="N162" s="34"/>
@@ -10473,7 +10298,7 @@
       <c r="U162" s="35"/>
       <c r="V162" s="36"/>
       <c r="W162" s="37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="163" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -10481,27 +10306,23 @@
         <v>160</v>
       </c>
       <c r="B163" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C163" s="30" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D163" s="30" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E163" s="31" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F163" s="32"/>
       <c r="G163" s="33"/>
       <c r="H163" s="33"/>
       <c r="I163" s="33"/>
-      <c r="J163" s="34" t="s">
-        <v>307</v>
-      </c>
-      <c r="K163" s="34" t="s">
-        <v>317</v>
-      </c>
+      <c r="J163" s="34"/>
+      <c r="K163" s="34"/>
       <c r="L163" s="34"/>
       <c r="M163" s="34"/>
       <c r="N163" s="34"/>
@@ -10514,7 +10335,7 @@
       <c r="U163" s="35"/>
       <c r="V163" s="36"/>
       <c r="W163" s="37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="164" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -10522,27 +10343,23 @@
         <v>161</v>
       </c>
       <c r="B164" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C164" s="30" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D164" s="30" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E164" s="31" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F164" s="32"/>
       <c r="G164" s="33"/>
       <c r="H164" s="33"/>
       <c r="I164" s="33"/>
-      <c r="J164" s="34" t="s">
-        <v>307</v>
-      </c>
-      <c r="K164" s="34" t="s">
-        <v>317</v>
-      </c>
+      <c r="J164" s="34"/>
+      <c r="K164" s="34"/>
       <c r="L164" s="34"/>
       <c r="M164" s="34"/>
       <c r="N164" s="34"/>
@@ -10555,7 +10372,7 @@
       <c r="U164" s="35"/>
       <c r="V164" s="36"/>
       <c r="W164" s="37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="165" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -10563,27 +10380,23 @@
         <v>162</v>
       </c>
       <c r="B165" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C165" s="30" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D165" s="30" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E165" s="31" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F165" s="32"/>
       <c r="G165" s="33"/>
       <c r="H165" s="33"/>
       <c r="I165" s="33"/>
-      <c r="J165" s="34" t="s">
-        <v>307</v>
-      </c>
-      <c r="K165" s="34" t="s">
-        <v>317</v>
-      </c>
+      <c r="J165" s="34"/>
+      <c r="K165" s="34"/>
       <c r="L165" s="34"/>
       <c r="M165" s="34"/>
       <c r="N165" s="34"/>
@@ -10596,7 +10409,7 @@
       <c r="U165" s="35"/>
       <c r="V165" s="36"/>
       <c r="W165" s="37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="166" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -10604,27 +10417,23 @@
         <v>163</v>
       </c>
       <c r="B166" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C166" s="30" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D166" s="30" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E166" s="31" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F166" s="32"/>
       <c r="G166" s="33"/>
       <c r="H166" s="33"/>
       <c r="I166" s="33"/>
-      <c r="J166" s="34" t="s">
-        <v>307</v>
-      </c>
-      <c r="K166" s="34" t="s">
-        <v>317</v>
-      </c>
+      <c r="J166" s="34"/>
+      <c r="K166" s="34"/>
       <c r="L166" s="34"/>
       <c r="M166" s="34"/>
       <c r="N166" s="34"/>
@@ -10637,7 +10446,7 @@
       <c r="U166" s="35"/>
       <c r="V166" s="36"/>
       <c r="W166" s="37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="167" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -10645,27 +10454,23 @@
         <v>164</v>
       </c>
       <c r="B167" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C167" s="30" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D167" s="30" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E167" s="31" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F167" s="32"/>
       <c r="G167" s="33"/>
       <c r="H167" s="33"/>
       <c r="I167" s="33"/>
-      <c r="J167" s="34" t="s">
-        <v>307</v>
-      </c>
-      <c r="K167" s="34" t="s">
-        <v>317</v>
-      </c>
+      <c r="J167" s="34"/>
+      <c r="K167" s="34"/>
       <c r="L167" s="34"/>
       <c r="M167" s="34"/>
       <c r="N167" s="34"/>
@@ -10678,7 +10483,7 @@
       <c r="U167" s="35"/>
       <c r="V167" s="36"/>
       <c r="W167" s="37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="168" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -10686,27 +10491,23 @@
         <v>165</v>
       </c>
       <c r="B168" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C168" s="30" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D168" s="30" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E168" s="31" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F168" s="32"/>
       <c r="G168" s="33"/>
       <c r="H168" s="33"/>
       <c r="I168" s="33"/>
-      <c r="J168" s="34" t="s">
-        <v>307</v>
-      </c>
-      <c r="K168" s="34" t="s">
-        <v>317</v>
-      </c>
+      <c r="J168" s="34"/>
+      <c r="K168" s="34"/>
       <c r="L168" s="34"/>
       <c r="M168" s="34"/>
       <c r="N168" s="34"/>
@@ -10719,7 +10520,7 @@
       <c r="U168" s="35"/>
       <c r="V168" s="36"/>
       <c r="W168" s="37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="169" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -10727,27 +10528,23 @@
         <v>166</v>
       </c>
       <c r="B169" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C169" s="30" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D169" s="30" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E169" s="31" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F169" s="32"/>
       <c r="G169" s="33"/>
       <c r="H169" s="33"/>
       <c r="I169" s="33"/>
-      <c r="J169" s="34" t="s">
-        <v>307</v>
-      </c>
-      <c r="K169" s="34" t="s">
-        <v>317</v>
-      </c>
+      <c r="J169" s="34"/>
+      <c r="K169" s="34"/>
       <c r="L169" s="34"/>
       <c r="M169" s="34"/>
       <c r="N169" s="34"/>
@@ -10760,7 +10557,7 @@
       <c r="U169" s="35"/>
       <c r="V169" s="36"/>
       <c r="W169" s="37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="170" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -10768,27 +10565,23 @@
         <v>167</v>
       </c>
       <c r="B170" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C170" s="30" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D170" s="30" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E170" s="31" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="F170" s="32"/>
       <c r="G170" s="33"/>
       <c r="H170" s="33"/>
       <c r="I170" s="33"/>
-      <c r="J170" s="34" t="s">
-        <v>307</v>
-      </c>
-      <c r="K170" s="34" t="s">
-        <v>317</v>
-      </c>
+      <c r="J170" s="34"/>
+      <c r="K170" s="34"/>
       <c r="L170" s="34"/>
       <c r="M170" s="34"/>
       <c r="N170" s="34"/>
@@ -10801,7 +10594,7 @@
       <c r="U170" s="35"/>
       <c r="V170" s="36"/>
       <c r="W170" s="37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="171" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -10809,27 +10602,23 @@
         <v>168</v>
       </c>
       <c r="B171" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C171" s="30" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D171" s="30" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E171" s="31" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="F171" s="32"/>
       <c r="G171" s="33"/>
       <c r="H171" s="33"/>
       <c r="I171" s="33"/>
-      <c r="J171" s="34" t="s">
-        <v>307</v>
-      </c>
-      <c r="K171" s="34" t="s">
-        <v>317</v>
-      </c>
+      <c r="J171" s="34"/>
+      <c r="K171" s="34"/>
       <c r="L171" s="34"/>
       <c r="M171" s="34"/>
       <c r="N171" s="34"/>
@@ -10842,7 +10631,7 @@
       <c r="U171" s="35"/>
       <c r="V171" s="36"/>
       <c r="W171" s="37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="172" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -10850,27 +10639,23 @@
         <v>169</v>
       </c>
       <c r="B172" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C172" s="30" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D172" s="30" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E172" s="31" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F172" s="32"/>
       <c r="G172" s="33"/>
       <c r="H172" s="33"/>
       <c r="I172" s="33"/>
-      <c r="J172" s="34" t="s">
-        <v>307</v>
-      </c>
-      <c r="K172" s="34" t="s">
-        <v>317</v>
-      </c>
+      <c r="J172" s="34"/>
+      <c r="K172" s="34"/>
       <c r="L172" s="34"/>
       <c r="M172" s="34"/>
       <c r="N172" s="34"/>
@@ -10883,24 +10668,24 @@
       <c r="U172" s="35"/>
       <c r="V172" s="36"/>
       <c r="W172" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="173" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="173" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A173" s="29">
         <v>174</v>
       </c>
       <c r="B173" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C173" s="30" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D173" s="30" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E173" s="31" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F173" s="32"/>
       <c r="G173" s="33"/>
@@ -10920,24 +10705,24 @@
       <c r="U173" s="35"/>
       <c r="V173" s="36"/>
       <c r="W173" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="174" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="174" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A174" s="29">
         <v>175</v>
       </c>
       <c r="B174" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C174" s="30" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D174" s="30" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E174" s="31" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="F174" s="32"/>
       <c r="G174" s="33"/>
@@ -10957,24 +10742,24 @@
       <c r="U174" s="35"/>
       <c r="V174" s="36"/>
       <c r="W174" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="175" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="175" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A175" s="29">
         <v>176</v>
       </c>
       <c r="B175" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C175" s="30" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D175" s="30" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E175" s="31" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="F175" s="32"/>
       <c r="G175" s="33"/>
@@ -10994,24 +10779,24 @@
       <c r="U175" s="35"/>
       <c r="V175" s="36"/>
       <c r="W175" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="176" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="176" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A176" s="29">
         <v>177</v>
       </c>
       <c r="B176" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C176" s="30" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D176" s="30" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E176" s="31" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="F176" s="32"/>
       <c r="G176" s="33"/>
@@ -11031,24 +10816,24 @@
       <c r="U176" s="35"/>
       <c r="V176" s="36"/>
       <c r="W176" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="177" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="177" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A177" s="29">
         <v>178</v>
       </c>
       <c r="B177" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C177" s="30" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D177" s="30" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E177" s="31" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="F177" s="32"/>
       <c r="G177" s="33"/>
@@ -11068,24 +10853,24 @@
       <c r="U177" s="35"/>
       <c r="V177" s="36"/>
       <c r="W177" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="178" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="178" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A178" s="29">
         <v>179</v>
       </c>
       <c r="B178" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C178" s="30" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D178" s="30" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E178" s="31" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="F178" s="32"/>
       <c r="G178" s="33"/>
@@ -11105,24 +10890,24 @@
       <c r="U178" s="35"/>
       <c r="V178" s="36"/>
       <c r="W178" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="179" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="179" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A179" s="29">
         <v>180</v>
       </c>
       <c r="B179" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C179" s="30" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D179" s="30" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E179" s="31" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="F179" s="32"/>
       <c r="G179" s="33"/>
@@ -11142,24 +10927,24 @@
       <c r="U179" s="35"/>
       <c r="V179" s="36"/>
       <c r="W179" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="180" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="180" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A180" s="29">
         <v>181</v>
       </c>
       <c r="B180" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C180" s="30" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D180" s="30" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E180" s="31" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F180" s="32"/>
       <c r="G180" s="33"/>
@@ -11179,24 +10964,24 @@
       <c r="U180" s="35"/>
       <c r="V180" s="36"/>
       <c r="W180" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="181" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="181" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A181" s="29">
         <v>182</v>
       </c>
       <c r="B181" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C181" s="30" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D181" s="30" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E181" s="31" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="F181" s="32"/>
       <c r="G181" s="33"/>
@@ -11216,24 +11001,24 @@
       <c r="U181" s="35"/>
       <c r="V181" s="36"/>
       <c r="W181" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="182" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="182" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A182" s="29">
         <v>183</v>
       </c>
       <c r="B182" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C182" s="30" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D182" s="30" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E182" s="31" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="F182" s="32"/>
       <c r="G182" s="33"/>
@@ -11253,24 +11038,24 @@
       <c r="U182" s="35"/>
       <c r="V182" s="36"/>
       <c r="W182" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="183" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="183" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A183" s="29">
         <v>184</v>
       </c>
       <c r="B183" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C183" s="30" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D183" s="30" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E183" s="31" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="F183" s="32"/>
       <c r="G183" s="33"/>
@@ -11290,24 +11075,24 @@
       <c r="U183" s="35"/>
       <c r="V183" s="36"/>
       <c r="W183" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="184" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="184" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A184" s="29">
         <v>185</v>
       </c>
       <c r="B184" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C184" s="30" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D184" s="30" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E184" s="31" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F184" s="32"/>
       <c r="G184" s="33"/>
@@ -11327,24 +11112,24 @@
       <c r="U184" s="35"/>
       <c r="V184" s="36"/>
       <c r="W184" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="185" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="185" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A185" s="29">
         <v>186</v>
       </c>
       <c r="B185" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C185" s="30" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D185" s="30" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E185" s="31" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="F185" s="32"/>
       <c r="G185" s="33"/>
@@ -11364,24 +11149,24 @@
       <c r="U185" s="35"/>
       <c r="V185" s="36"/>
       <c r="W185" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="186" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="186" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A186" s="29">
         <v>187</v>
       </c>
       <c r="B186" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C186" s="30" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D186" s="30" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E186" s="31" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="F186" s="32"/>
       <c r="G186" s="33"/>
@@ -11401,24 +11186,24 @@
       <c r="U186" s="35"/>
       <c r="V186" s="36"/>
       <c r="W186" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="187" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="187" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A187" s="29">
         <v>188</v>
       </c>
       <c r="B187" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C187" s="30" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D187" s="30" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E187" s="31" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="F187" s="32"/>
       <c r="G187" s="33"/>
@@ -11438,24 +11223,24 @@
       <c r="U187" s="35"/>
       <c r="V187" s="36"/>
       <c r="W187" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="188" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="188" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A188" s="29">
         <v>189</v>
       </c>
       <c r="B188" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C188" s="30" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D188" s="30" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E188" s="31" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="F188" s="32"/>
       <c r="G188" s="33"/>
@@ -11475,24 +11260,24 @@
       <c r="U188" s="35"/>
       <c r="V188" s="36"/>
       <c r="W188" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="189" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="189" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A189" s="29">
         <v>190</v>
       </c>
       <c r="B189" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C189" s="30" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D189" s="30" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E189" s="31" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F189" s="32"/>
       <c r="G189" s="33"/>
@@ -11512,24 +11297,24 @@
       <c r="U189" s="35"/>
       <c r="V189" s="36"/>
       <c r="W189" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="190" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="190" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A190" s="29">
         <v>191</v>
       </c>
       <c r="B190" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C190" s="30" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D190" s="30" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E190" s="31" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="F190" s="32"/>
       <c r="G190" s="33"/>
@@ -11549,24 +11334,24 @@
       <c r="U190" s="35"/>
       <c r="V190" s="36"/>
       <c r="W190" s="37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="191" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="191" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A191" s="29">
         <v>368</v>
       </c>
       <c r="B191" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C191" s="30" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D191" s="30" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E191" s="31" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="F191" s="32"/>
       <c r="G191" s="33"/>
@@ -11586,24 +11371,24 @@
       <c r="U191" s="35"/>
       <c r="V191" s="36"/>
       <c r="W191" s="37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="192" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="192" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A192" s="29">
         <v>369</v>
       </c>
       <c r="B192" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C192" s="30" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D192" s="30" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E192" s="31" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="F192" s="32"/>
       <c r="G192" s="33"/>
@@ -11623,24 +11408,24 @@
       <c r="U192" s="35"/>
       <c r="V192" s="36"/>
       <c r="W192" s="37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="193" spans="1:27" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="193" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A193" s="29">
         <v>371</v>
       </c>
       <c r="B193" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C193" s="30" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D193" s="30" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E193" s="31" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="F193" s="32"/>
       <c r="G193" s="33"/>
@@ -11660,24 +11445,24 @@
       <c r="U193" s="35"/>
       <c r="V193" s="36"/>
       <c r="W193" s="37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="194" spans="1:27" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="194" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A194" s="29">
         <v>372</v>
       </c>
       <c r="B194" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C194" s="30" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D194" s="30" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E194" s="31" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F194" s="32"/>
       <c r="G194" s="33"/>
@@ -11697,24 +11482,24 @@
       <c r="U194" s="35"/>
       <c r="V194" s="36"/>
       <c r="W194" s="37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="195" spans="1:27" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="195" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A195" s="29">
         <v>373</v>
       </c>
       <c r="B195" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C195" s="30" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D195" s="30" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="E195" s="31" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="F195" s="32"/>
       <c r="G195" s="33"/>
@@ -11734,40 +11519,30 @@
       <c r="U195" s="35"/>
       <c r="V195" s="36"/>
       <c r="W195" s="37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="196" spans="1:27" ht="11" customHeight="1" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="196" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A196" s="29">
         <v>374</v>
       </c>
       <c r="B196" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C196" s="30" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D196" s="30" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="E196" s="31" t="s">
-        <v>501</v>
-      </c>
-      <c r="F196" s="32">
-        <v>45548</v>
-      </c>
-      <c r="G196" s="33" t="s">
-        <v>508</v>
-      </c>
-      <c r="H196" s="33" t="s">
-        <v>509</v>
-      </c>
-      <c r="I196" s="33" t="s">
-        <v>510</v>
-      </c>
-      <c r="J196" s="34" t="s">
-        <v>87</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="F196" s="32"/>
+      <c r="G196" s="33"/>
+      <c r="H196" s="33"/>
+      <c r="I196" s="33"/>
+      <c r="J196" s="34"/>
       <c r="K196" s="34"/>
       <c r="L196" s="34"/>
       <c r="M196" s="34"/>
@@ -11781,24 +11556,24 @@
       <c r="U196" s="35"/>
       <c r="V196" s="36"/>
       <c r="W196" s="39" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="197" spans="1:27" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="197" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A197" s="40">
         <v>376</v>
       </c>
       <c r="B197" s="41" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C197" s="41" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D197" s="41" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="E197" s="42" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="F197" s="43"/>
       <c r="G197" s="44"/>
@@ -11818,24 +11593,24 @@
       <c r="U197" s="46"/>
       <c r="V197" s="47"/>
       <c r="W197" s="48" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="198" spans="1:27" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="198" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A198" s="49">
         <v>417</v>
       </c>
       <c r="B198" s="41" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C198" s="50" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D198" s="30" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="E198" s="51" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F198" s="52"/>
       <c r="G198" s="53"/>
@@ -11855,24 +11630,24 @@
       <c r="U198" s="55"/>
       <c r="V198" s="56"/>
       <c r="W198" s="57" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="199" spans="1:27" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="199" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A199" s="49">
         <v>418</v>
       </c>
       <c r="B199" s="41" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C199" s="50" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D199" s="30" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E199" s="31" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F199" s="52"/>
       <c r="G199" s="53"/>
@@ -11892,24 +11667,24 @@
       <c r="U199" s="55"/>
       <c r="V199" s="56"/>
       <c r="W199" s="57" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="200" spans="1:27" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="200" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A200" s="49">
         <v>419</v>
       </c>
       <c r="B200" s="41" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C200" s="50" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D200" s="30" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="E200" s="31" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F200" s="52"/>
       <c r="G200" s="53"/>
@@ -11929,24 +11704,24 @@
       <c r="U200" s="55"/>
       <c r="V200" s="56"/>
       <c r="W200" s="57" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="201" spans="1:27" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="201" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A201" s="49">
         <v>423</v>
       </c>
       <c r="B201" s="41" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C201" s="50" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D201" s="30" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="E201" s="31" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F201" s="52"/>
       <c r="G201" s="53"/>
@@ -11966,24 +11741,24 @@
       <c r="U201" s="55"/>
       <c r="V201" s="56"/>
       <c r="W201" s="57" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="202" spans="1:27" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="202" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A202" s="49">
         <v>424</v>
       </c>
       <c r="B202" s="41" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C202" s="50" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D202" s="30" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="E202" s="31" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F202" s="52"/>
       <c r="G202" s="53"/>
@@ -12003,24 +11778,24 @@
       <c r="U202" s="55"/>
       <c r="V202" s="56"/>
       <c r="W202" s="57" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="203" spans="1:27" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="203" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A203" s="49">
         <v>425</v>
       </c>
       <c r="B203" s="41" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C203" s="50" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D203" s="30" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="E203" s="31" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="F203" s="52"/>
       <c r="G203" s="53"/>
@@ -12040,24 +11815,24 @@
       <c r="U203" s="55"/>
       <c r="V203" s="56"/>
       <c r="W203" s="57" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="204" spans="1:27" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="204" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A204" s="49">
         <v>426</v>
       </c>
       <c r="B204" s="41" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C204" s="50" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D204" s="30" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="E204" s="31" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F204" s="52"/>
       <c r="G204" s="53"/>
@@ -12077,34 +11852,24 @@
       <c r="U204" s="55"/>
       <c r="V204" s="56"/>
       <c r="W204" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y204">
-        <v>6</v>
-      </c>
-      <c r="Z204" t="s">
-        <v>353</v>
-      </c>
-      <c r="AA204" t="e">
-        <f ca="1">_xlfn.CONCAT("VALIDAZIONE_CDA2_RAP_CT",Y204,"_KO")</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="205" spans="1:27" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="205" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A205" s="49">
         <v>427</v>
       </c>
       <c r="B205" s="41" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C205" s="50" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D205" s="30" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E205" s="31" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F205" s="52"/>
       <c r="G205" s="53"/>
@@ -12124,35 +11889,24 @@
       <c r="U205" s="55"/>
       <c r="V205" s="56"/>
       <c r="W205" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y205">
-        <f>Y204+1</f>
-        <v>7</v>
-      </c>
-      <c r="Z205" t="s">
-        <v>353</v>
-      </c>
-      <c r="AA205" t="e">
-        <f t="shared" ref="AA205:AA221" ca="1" si="0">_xlfn.CONCAT("VALIDAZIONE_CDA2_RAP_CT",Y205,"_KO")</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="206" spans="1:27" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="206" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A206" s="49">
         <v>428</v>
       </c>
       <c r="B206" s="41" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C206" s="50" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D206" s="30" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="E206" s="31" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F206" s="52"/>
       <c r="G206" s="53"/>
@@ -12172,35 +11926,24 @@
       <c r="U206" s="55"/>
       <c r="V206" s="56"/>
       <c r="W206" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y206">
-        <f t="shared" ref="Y206:Y221" si="1">Y205+1</f>
-        <v>8</v>
-      </c>
-      <c r="Z206" t="s">
-        <v>353</v>
-      </c>
-      <c r="AA206" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="207" spans="1:27" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="207" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A207" s="49">
         <v>429</v>
       </c>
       <c r="B207" s="41" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C207" s="50" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D207" s="30" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="E207" s="31" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F207" s="52"/>
       <c r="G207" s="53"/>
@@ -12220,35 +11963,24 @@
       <c r="U207" s="55"/>
       <c r="V207" s="56"/>
       <c r="W207" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y207">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="Z207" t="s">
-        <v>353</v>
-      </c>
-      <c r="AA207" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="208" spans="1:27" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="208" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A208" s="49">
         <v>430</v>
       </c>
       <c r="B208" s="41" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C208" s="50" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D208" s="30" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="E208" s="31" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F208" s="52"/>
       <c r="G208" s="53"/>
@@ -12268,35 +12000,24 @@
       <c r="U208" s="55"/>
       <c r="V208" s="56"/>
       <c r="W208" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y208">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="Z208" t="s">
-        <v>353</v>
-      </c>
-      <c r="AA208" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="209" spans="1:27" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="209" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A209" s="49">
         <v>431</v>
       </c>
       <c r="B209" s="41" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C209" s="50" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D209" s="30" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="E209" s="31" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F209" s="52"/>
       <c r="G209" s="53"/>
@@ -12316,35 +12037,24 @@
       <c r="U209" s="55"/>
       <c r="V209" s="56"/>
       <c r="W209" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y209">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="Z209" t="s">
-        <v>353</v>
-      </c>
-      <c r="AA209" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="210" spans="1:27" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="210" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A210" s="49">
         <v>432</v>
       </c>
       <c r="B210" s="41" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C210" s="50" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D210" s="30" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="E210" s="31" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F210" s="52"/>
       <c r="G210" s="53"/>
@@ -12364,35 +12074,24 @@
       <c r="U210" s="55"/>
       <c r="V210" s="56"/>
       <c r="W210" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y210">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="Z210" t="s">
-        <v>353</v>
-      </c>
-      <c r="AA210" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="211" spans="1:27" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="211" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A211" s="49">
         <v>433</v>
       </c>
       <c r="B211" s="41" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C211" s="50" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D211" s="30" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="E211" s="31" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F211" s="52"/>
       <c r="G211" s="53"/>
@@ -12412,35 +12111,24 @@
       <c r="U211" s="55"/>
       <c r="V211" s="56"/>
       <c r="W211" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y211">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="Z211" t="s">
-        <v>353</v>
-      </c>
-      <c r="AA211" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="212" spans="1:27" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="212" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A212" s="49">
         <v>434</v>
       </c>
       <c r="B212" s="41" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C212" s="50" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D212" s="30" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="E212" s="31" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F212" s="52"/>
       <c r="G212" s="53"/>
@@ -12460,35 +12148,24 @@
       <c r="U212" s="55"/>
       <c r="V212" s="56"/>
       <c r="W212" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y212">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="Z212" t="s">
-        <v>353</v>
-      </c>
-      <c r="AA212" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="213" spans="1:27" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="213" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A213" s="49">
         <v>435</v>
       </c>
       <c r="B213" s="41" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C213" s="50" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D213" s="30" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="E213" s="31" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F213" s="52"/>
       <c r="G213" s="53"/>
@@ -12508,35 +12185,24 @@
       <c r="U213" s="55"/>
       <c r="V213" s="56"/>
       <c r="W213" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y213">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="Z213" t="s">
-        <v>353</v>
-      </c>
-      <c r="AA213" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="214" spans="1:27" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="214" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A214" s="49">
         <v>436</v>
       </c>
       <c r="B214" s="41" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C214" s="50" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D214" s="30" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="E214" s="31" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F214" s="52"/>
       <c r="G214" s="53"/>
@@ -12556,35 +12222,24 @@
       <c r="U214" s="55"/>
       <c r="V214" s="56"/>
       <c r="W214" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y214">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="Z214" t="s">
-        <v>353</v>
-      </c>
-      <c r="AA214" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="215" spans="1:27" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="215" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A215" s="49">
         <v>437</v>
       </c>
       <c r="B215" s="41" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C215" s="50" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D215" s="30" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="E215" s="31" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F215" s="52"/>
       <c r="G215" s="53"/>
@@ -12604,35 +12259,24 @@
       <c r="U215" s="55"/>
       <c r="V215" s="56"/>
       <c r="W215" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y215">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="Z215" t="s">
-        <v>353</v>
-      </c>
-      <c r="AA215" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="216" spans="1:27" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="216" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A216" s="49">
         <v>438</v>
       </c>
       <c r="B216" s="41" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C216" s="50" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D216" s="30" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="E216" s="31" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F216" s="52"/>
       <c r="G216" s="53"/>
@@ -12652,35 +12296,24 @@
       <c r="U216" s="55"/>
       <c r="V216" s="56"/>
       <c r="W216" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y216">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="Z216" t="s">
-        <v>353</v>
-      </c>
-      <c r="AA216" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="217" spans="1:27" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="217" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A217" s="49">
         <v>439</v>
       </c>
       <c r="B217" s="41" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C217" s="50" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D217" s="30" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="E217" s="31" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F217" s="52"/>
       <c r="G217" s="53"/>
@@ -12700,35 +12333,24 @@
       <c r="U217" s="55"/>
       <c r="V217" s="56"/>
       <c r="W217" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y217">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="Z217" t="s">
-        <v>353</v>
-      </c>
-      <c r="AA217" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="218" spans="1:27" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="218" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A218" s="49">
         <v>440</v>
       </c>
       <c r="B218" s="41" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C218" s="50" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D218" s="30" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="E218" s="31" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F218" s="52"/>
       <c r="G218" s="53"/>
@@ -12748,35 +12370,24 @@
       <c r="U218" s="55"/>
       <c r="V218" s="56"/>
       <c r="W218" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y218">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="Z218" t="s">
-        <v>353</v>
-      </c>
-      <c r="AA218" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="219" spans="1:27" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="219" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A219" s="49">
         <v>441</v>
       </c>
       <c r="B219" s="41" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C219" s="50" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D219" s="30" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="E219" s="31" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F219" s="52"/>
       <c r="G219" s="53"/>
@@ -12796,35 +12407,24 @@
       <c r="U219" s="55"/>
       <c r="V219" s="56"/>
       <c r="W219" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y219">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="Z219" t="s">
-        <v>353</v>
-      </c>
-      <c r="AA219" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="220" spans="1:27" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="220" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A220" s="58">
         <v>442</v>
       </c>
       <c r="B220" s="41" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C220" s="59" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D220" s="41" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E220" s="42" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F220" s="62"/>
       <c r="G220" s="63"/>
@@ -12844,35 +12444,24 @@
       <c r="U220" s="65"/>
       <c r="V220" s="66"/>
       <c r="W220" s="67" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y220">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="Z220" t="s">
-        <v>353</v>
-      </c>
-      <c r="AA220" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="221" spans="1:27" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="221" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A221" s="49">
         <v>443</v>
       </c>
       <c r="B221" s="50" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C221" s="50" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D221" s="50" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E221" s="51" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F221" s="52"/>
       <c r="G221" s="53"/>
@@ -12892,35 +12481,24 @@
       <c r="U221" s="55"/>
       <c r="V221" s="56"/>
       <c r="W221" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y221">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="Z221" t="s">
-        <v>353</v>
-      </c>
-      <c r="AA221" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="222" spans="1:27" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="222" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A222" s="49">
         <v>444</v>
       </c>
       <c r="B222" s="50" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C222" s="50" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D222" s="50" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E222" s="51" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="F222" s="52"/>
       <c r="G222" s="53"/>
@@ -12940,24 +12518,24 @@
       <c r="U222" s="55"/>
       <c r="V222" s="56"/>
       <c r="W222" s="57" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="223" spans="1:27" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="223" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A223" s="49">
         <v>445</v>
       </c>
       <c r="B223" s="50" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C223" s="50" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D223" s="50" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E223" s="51" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="F223" s="52"/>
       <c r="G223" s="53"/>
@@ -12977,24 +12555,24 @@
       <c r="U223" s="55"/>
       <c r="V223" s="56"/>
       <c r="W223" s="57" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="224" spans="1:27" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="224" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A224" s="58">
         <v>446</v>
       </c>
       <c r="B224" s="59" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C224" s="59" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D224" s="41" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E224" s="42" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F224" s="43"/>
       <c r="G224" s="44"/>
@@ -13014,24 +12592,24 @@
       <c r="U224" s="46"/>
       <c r="V224" s="60"/>
       <c r="W224" s="39" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="225" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="225" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A225" s="49">
         <v>447</v>
       </c>
       <c r="B225" s="50" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C225" s="50" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D225" s="50" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E225" s="51" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F225" s="52"/>
       <c r="G225" s="53"/>
@@ -13051,14 +12629,14 @@
       <c r="U225" s="55"/>
       <c r="V225" s="56"/>
       <c r="W225" s="57" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="226" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F226" s="6"/>
       <c r="G226" s="6"/>
       <c r="H226" s="6"/>
-      <c r="I226" s="70"/>
+      <c r="I226" s="6"/>
       <c r="J226" s="7"/>
       <c r="K226" s="7"/>
       <c r="L226" s="7"/>
@@ -17646,13 +17224,7 @@
       <c r="W809" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A9:W225" xr:uid="{00000000-0001-0000-0200-000000000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="RSA"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A9:W225" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <mergeCells count="7">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A2:B2"/>
@@ -17662,18 +17234,18 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="3">
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{F5F4AC7B-142E-4F14-AD0B-95E75DB6B433}">
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>J34 M34:N34 P34:R34 J36:J40 M36:N40 P36:R40 J42 M42:N42 P42:R42 J44:J48 M44:N48 P44:R48 P50:R225 P10:R32 M50:N225 J10:J32 M10:N32 J50:J225</xm:sqref>
+          <xm:sqref>J34 M34:N34 P34:R34 J36:J40 M36:N40 P36:R40 J42 M42:N42 P42:R42 J44:J48 M44:N48 P44:R48 P50:R225 J50:J225 M50:N225 J10:J32 M10:N32 P10:R32</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{70793024-27E9-4E6A-BACD-083AB683BC38}">
           <x14:formula1>
@@ -17685,7 +17257,7 @@
           <x14:formula1>
             <xm:f>'LISTA VALORI'!$A$2:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>K44:K225 K10:K34 K36:K42</xm:sqref>
+          <xm:sqref>K10:K225</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -17705,42 +17277,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -17754,7 +17326,7 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -17765,167 +17337,167 @@
     <col min="4" max="4" width="102" customWidth="1"/>
     <col min="5" max="5" width="8.81640625" customWidth="1"/>
     <col min="6" max="6" width="9.453125" customWidth="1"/>
-    <col min="7" max="7" width="5.1796875" customWidth="1"/>
+    <col min="7" max="7" width="5.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="61" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C4" s="12">
         <v>446.447</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -18899,26 +18471,26 @@
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -20190,15 +19762,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
@@ -20210,8 +19773,17 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{188DA7F5-158B-4F2F-BE68-E8B30B468193}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5C8A108-5C92-4947-B020-8B796E060B59}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -20230,26 +19802,26 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>